--- a/Documents/DIYANA/CPD 2024/MYCPD 2024.xlsx
+++ b/Documents/DIYANA/CPD 2024/MYCPD 2024.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Documents\DIYANA\CPD 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Documents\DIYANA\CPD 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA040E33-71D1-40CE-A33F-119E7BFB3C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFA5108-0032-429D-B34D-7B949C4E4A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{48AE988C-096A-4B6E-83BA-7484CB22E303}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48AE988C-096A-4B6E-83BA-7484CB22E303}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t>DESKRIPSI</t>
   </si>
@@ -232,6 +243,30 @@
   </si>
   <si>
     <t xml:space="preserve">SENARAI KEHADIRAN USER TRAINING ICPMS 8900 OKSIGEN GAS MODE </t>
+  </si>
+  <si>
+    <t>PERTANDINGAN MEREKACIPTA DIGITAL BACKDROP</t>
+  </si>
+  <si>
+    <t>PERTANDINGAN INDOOR GAME TERTUTUP PENOLONG PEGAWAI FARMASI BAHAGIAN REGULATORI FARMASI NEGARA (NPRA)</t>
+  </si>
+  <si>
+    <t>PERTANDINGAN INOVASI &amp; KREATIVITI BAHAN KITAR SEMULA EKSA 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KURSUS MEMPERKASA KERJA BERPASUKAN </t>
+  </si>
+  <si>
+    <t>SURAT LANTIKAN AJK KECIL EKSA SUBZON PULAU 2023-2024</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>NPRA</t>
+  </si>
+  <si>
+    <t>MELAKA</t>
   </si>
 </sst>
 </file>
@@ -241,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,13 +306,56 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -295,19 +373,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -340,41 +405,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -386,32 +443,140 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,9 +596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -471,7 +636,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -577,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,7 +884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,968 +892,1116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C735BFC-1975-4C97-B51C-CCF791253AC2}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="15">
         <v>45328</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="15">
         <v>45328</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="16">
         <v>4.3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="16">
         <v>6.3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="31">
         <v>45329</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="31">
         <v>45329</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="32">
         <v>9</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="32">
         <v>10</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="36">
         <v>45331</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="36">
         <v>45331</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="37">
         <v>12.25</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="37">
         <v>12.55</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="35">
         <v>1</v>
       </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="15">
         <v>45338</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="15">
         <v>45338</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="16">
         <v>10</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="16">
         <v>12</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="14">
         <v>2</v>
       </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="36">
         <v>45340</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="36">
         <v>45340</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="37">
         <v>20</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="37">
         <v>22</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="35">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="36">
         <v>45342</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="36">
         <v>45342</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="37">
         <v>20</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="37">
         <v>22</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="35">
         <v>1</v>
       </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="31">
         <v>45343</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="31">
         <v>45343</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="32">
         <v>3.15</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="32">
         <v>3.45</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="30">
         <v>1</v>
       </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="36">
         <v>45343</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="36">
         <v>45343</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="37">
         <v>20</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="37">
         <v>22</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="35">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="31">
         <v>45345</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="31">
         <v>45405</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="32">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="32">
         <v>11</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="30">
         <v>1</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="31">
         <v>45345</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="31">
         <v>45405</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="32">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="32">
         <v>4</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="30">
         <v>1</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="31">
         <v>45349</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="31">
         <v>45349</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="32">
         <v>3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="32">
         <v>4</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="30">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="31">
         <v>45351</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="31">
         <v>45351</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="32">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="32">
         <v>3.3</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="30">
         <v>1</v>
       </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="15">
         <v>45323</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="15">
         <v>45351</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="16">
         <v>8</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="16">
         <v>17</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="14">
         <v>2</v>
       </c>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="31">
         <v>45351</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="31">
         <v>45351</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="32">
         <v>3.3</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="31">
         <v>45352</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="31">
         <v>45352</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="32">
         <v>3.3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="32">
         <v>4</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="G17" s="32"/>
+      <c r="H17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="33">
         <v>45358</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="33">
         <v>45358</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="32">
         <v>10.3</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="32">
         <v>11.3</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="33">
         <v>45359</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="33">
         <v>45359</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="19">
         <v>45359</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="19">
         <v>45359</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="16">
         <v>10</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="16">
         <v>12</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="31">
         <v>45364</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="31">
         <v>45364</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="31">
         <v>45366</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="31">
         <v>45366</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="31">
         <v>45366</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="31">
         <v>45366</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="22">
         <v>45369</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="22">
         <v>45371</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="28">
         <v>4.3</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="21">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="31">
         <v>45372</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="31">
         <v>45372</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="32">
         <v>3.3</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="22">
         <v>45377</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="22">
         <v>45378</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="23">
         <v>9</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="23">
         <v>5</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="15">
         <v>45397</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="15">
         <v>45412</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="16">
         <v>8</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="16">
         <v>5</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="31">
         <v>45414</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="31">
         <v>45414</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="32">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="32">
         <v>10.3</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="32"/>
+      <c r="H28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="22">
         <v>45322</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="22">
         <v>45323</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="23">
         <v>9</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="23">
         <v>4.3</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="23"/>
+      <c r="H29" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="17" t="s">
+    <row r="30" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="45">
+        <v>45511</v>
+      </c>
+      <c r="D30" s="15">
+        <v>45535</v>
+      </c>
+      <c r="E30" s="16">
+        <v>8</v>
+      </c>
+      <c r="F30" s="16">
+        <v>5</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="45">
+        <v>45537</v>
+      </c>
+      <c r="D31" s="15">
+        <v>45541</v>
+      </c>
+      <c r="E31" s="16">
+        <v>8</v>
+      </c>
+      <c r="F31" s="16">
+        <v>5</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="48">
+        <v>45413</v>
+      </c>
+      <c r="D32" s="25">
+        <v>45473</v>
+      </c>
+      <c r="E32" s="26">
+        <v>8</v>
+      </c>
+      <c r="F32" s="26">
+        <v>5</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="49">
+        <v>45210</v>
+      </c>
+      <c r="D33" s="25">
+        <v>45657</v>
+      </c>
+      <c r="E33" s="26">
+        <v>8</v>
+      </c>
+      <c r="F33" s="26">
+        <v>5</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="52">
+        <v>45611</v>
+      </c>
+      <c r="D34" s="22">
+        <v>45613</v>
+      </c>
+      <c r="E34" s="23">
+        <v>8</v>
+      </c>
+      <c r="F34" s="23">
+        <v>5</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="12">
-        <f>SUM(J3:J29)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="5">
+        <f>SUM(J3:J34)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C37" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="15">
-        <f>SUM(J24,J26)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="C38" s="39">
+        <f>SUM(J24,J26,J29,J34)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="15">
-        <f>SUM(J4,J9,J11,J12,J13,J14,J16,J17,J18,J19,J21,J22,J23,J25,J29)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="C39" s="40">
+        <f>SUM(J4,J9,J11,J12,J13,J14,J16,J17,J18,J19,J21,J22,J23,J25,J28)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C40" s="41">
         <f>SUM(J5,J7,J8,J10)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="50">
+        <f>J32+J33</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="15">
-        <f>SUM(J3,J6,J15,J20,J27)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="C42" s="42">
+        <f>SUM(J3,J6,J15,J20,J27,J30,J31)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="15">
-        <f>SUM(C33:C37)</f>
-        <v>66</v>
+      <c r="C44" s="8">
+        <f>SUM(C38:C43)</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J29" xr:uid="{48E510B0-FD23-48E1-8695-F9B060674242}">
+  <autoFilter ref="A1:J34" xr:uid="{48E510B0-FD23-48E1-8695-F9B060674242}">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
-    <sortState ref="A4:J29">
-      <sortCondition ref="C1:C29"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J34">
+      <sortCondition ref="C1:C34"/>
     </sortState>
   </autoFilter>
   <mergeCells count="9">
-    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="H1:H2"/>
